--- a/Result/checksun/化學工業.xlsx
+++ b/Result/checksun/化學工業.xlsx
@@ -15803,7 +15803,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15993,7 +15997,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16183,7 +16191,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV81" t="inlineStr"/>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -16373,7 +16385,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV82" t="inlineStr"/>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16563,7 +16579,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -16753,7 +16773,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16943,7 +16967,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV85" t="inlineStr"/>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17133,7 +17161,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17323,7 +17355,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17521,7 +17557,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -17719,7 +17759,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV89" t="inlineStr"/>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
